--- a/Testmatrix.xlsx
+++ b/Testmatrix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Hydro\System-Optionen\Macros\HydroTaskpane2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E9FF9AE-6E24-4874-AFF0-7E78BEC8C95F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05056D95-0373-4C89-8340-546463DFF102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="866" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1548" uniqueCount="357">
   <si>
     <t>befüllt Attribut</t>
   </si>
@@ -923,9 +923,6 @@
     <t>funktioniert erst nach erstmaligem Speichern</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>Grundfunktion Taskpane Assembly Menu</t>
   </si>
   <si>
@@ -1265,9 +1262,6 @@
     <t>Bei Auswahl eines Werkstoffs in "Werkstoff Hydro Variante 1" wird die hinterlegte Dichte des Werkstoffs abgerufen</t>
   </si>
   <si>
-    <t>Bei Auswahl eines Werkstoffs in "Werkstoff Hydro Variante 1" ohne hinterlegte Dichte öffnet sich ein Fesnter zum Eintragen der Dichte</t>
-  </si>
-  <si>
     <t>Activate Attribute templates</t>
   </si>
   <si>
@@ -1365,6 +1359,33 @@
   </si>
   <si>
     <t>Hierfür wird ein neues Attribut benötigt!</t>
+  </si>
+  <si>
+    <t>Bei Auswahl eines Werkstoffs in "Werkstoff Hydro Variante 1" öffnet sich ein Fenster zum Eintragen von "Zugfestigkeit", "Streckgrenze" und "Bruchdehnung"</t>
+  </si>
+  <si>
+    <t>Bei Auswahl eines Werkstoffs in "Werkstoff Hydro Variante 1" ohne hinterlegte Dichte öffnet sich ein Fenster zum Eintragen der "Dichte"</t>
+  </si>
+  <si>
+    <t>HYDRO_CAD_YIELD_STRENGTH</t>
+  </si>
+  <si>
+    <t>HYDRO_CAD_TENSILE_STRENGTH</t>
+  </si>
+  <si>
+    <t>HYDRO_CAD_ELONGATION</t>
+  </si>
+  <si>
+    <t>wird befüllt mit eingegebenem Wert</t>
+  </si>
+  <si>
+    <t>Streckgrenze</t>
+  </si>
+  <si>
+    <t>Zugfestigkeit</t>
+  </si>
+  <si>
+    <t>Bruchdehnung</t>
   </si>
 </sst>
 </file>
@@ -1622,7 +1643,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -1665,7 +1686,11 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1674,24 +1699,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2039,21 +2049,21 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2615,8 +2625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:E40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2645,10 +2655,10 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -2684,7 +2694,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
@@ -2708,7 +2718,7 @@
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
@@ -2732,7 +2742,7 @@
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
@@ -2777,7 +2787,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
@@ -2785,7 +2795,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
@@ -2793,7 +2803,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
@@ -2872,54 +2882,49 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B34" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="B34" s="35" t="s">
-        <v>310</v>
-      </c>
-      <c r="C34" s="34"/>
-      <c r="D34" s="37"/>
+      <c r="D34" s="29"/>
       <c r="E34" s="8"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="35" t="s">
-        <v>311</v>
-      </c>
-      <c r="C35" s="34"/>
+      <c r="B35" s="18" t="s">
+        <v>310</v>
+      </c>
       <c r="D35" s="4"/>
       <c r="E35" s="8"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C36" s="34"/>
+        <v>303</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="35" t="s">
-        <v>317</v>
-      </c>
-      <c r="C37" s="34"/>
+      <c r="B37" s="18" t="s">
+        <v>315</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="35" t="s">
-        <v>318</v>
-      </c>
-      <c r="C38" s="34"/>
+      <c r="B38" s="18" t="s">
+        <v>316</v>
+      </c>
       <c r="D38" s="4"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="5"/>
-      <c r="B39" s="36"/>
+      <c r="B39" s="28"/>
       <c r="C39" s="6"/>
       <c r="D39" s="5"/>
       <c r="E39" s="7"/>
@@ -2986,10 +2991,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A2:J163"/>
+  <dimension ref="A2:J160"/>
   <sheetViews>
-    <sheetView topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J88" sqref="J88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3012,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -3026,10 +3031,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -3041,14 +3046,14 @@
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="4"/>
       <c r="I6" s="8"/>
     </row>
@@ -3063,7 +3068,7 @@
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H8" s="4"/>
       <c r="I8" s="8"/>
@@ -3080,10 +3085,10 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="8"/>
@@ -3091,7 +3096,7 @@
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="22"/>
       <c r="B12" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="8"/>
@@ -3099,7 +3104,7 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
       <c r="B13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="8"/>
@@ -3107,7 +3112,7 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="8"/>
@@ -3140,95 +3145,102 @@
     </row>
     <row r="19" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>282</v>
-      </c>
-      <c r="C19" s="28"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
+        <v>288</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
       <c r="H19" s="4"/>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="22"/>
-      <c r="B20" s="28" t="s">
-        <v>283</v>
-      </c>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
+      <c r="B20" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
       <c r="H20" s="4"/>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="22"/>
-      <c r="B21" s="28" t="s">
-        <v>284</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
+      <c r="B21" s="31" t="s">
+        <v>283</v>
+      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
+      <c r="G21" s="31"/>
       <c r="H21" s="4"/>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="22"/>
       <c r="B22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H22" s="4"/>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="22"/>
-      <c r="B23" s="28" t="s">
-        <v>315</v>
-      </c>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="33"/>
+      <c r="B23" s="31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
+      <c r="G23" s="32"/>
       <c r="H23" s="4"/>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="22"/>
-      <c r="B24" s="28" t="s">
-        <v>316</v>
-      </c>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="33"/>
+      <c r="B24" s="31" t="s">
+        <v>349</v>
+      </c>
+      <c r="C24" s="31"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
       <c r="H24" s="4"/>
       <c r="I24" s="8"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="22"/>
-      <c r="B25" s="28" t="s">
-        <v>299</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="33"/>
+      <c r="B25" s="38" t="s">
+        <v>348</v>
+      </c>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="39"/>
       <c r="H25" s="4"/>
       <c r="I25" s="8"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22"/>
-      <c r="G26" s="34"/>
+      <c r="B26" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="31"/>
+      <c r="D26" s="31"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
+      <c r="G26" s="32"/>
       <c r="H26" s="4"/>
       <c r="I26" s="8"/>
     </row>
@@ -3261,40 +3273,40 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="22"/>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
       <c r="H30" s="4"/>
       <c r="I30" s="8"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="22"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
+      <c r="G31" s="31"/>
       <c r="H31" s="4"/>
       <c r="I31" s="8"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="22"/>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="31" t="s">
         <v>11</v>
       </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
-      <c r="E32" s="28"/>
-      <c r="F32" s="28"/>
-      <c r="G32" s="28"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="4"/>
       <c r="I32" s="8"/>
     </row>
@@ -3854,12 +3866,12 @@
         <v>0</v>
       </c>
       <c r="E66" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="8"/>
       <c r="J66" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
@@ -3874,12 +3886,12 @@
         <v>0</v>
       </c>
       <c r="E67" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H67" s="4"/>
       <c r="I67" s="8"/>
       <c r="J67" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -3894,12 +3906,12 @@
         <v>0</v>
       </c>
       <c r="E68" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H68" s="4"/>
       <c r="I68" s="8"/>
       <c r="J68" s="16" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
@@ -4139,23 +4151,21 @@
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="8"/>
-      <c r="J83" s="45"/>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84" s="22"/>
-      <c r="B84" s="47" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84" s="47" t="s">
+      <c r="B84" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C84" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D84" s="47" t="s">
-        <v>295</v>
-      </c>
-      <c r="E84" s="47"/>
+      <c r="D84" s="18" t="s">
+        <v>294</v>
+      </c>
+      <c r="E84" s="18"/>
       <c r="H84" s="4"/>
       <c r="I84" s="8"/>
-      <c r="J84" s="45"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85" s="22"/>
@@ -4193,56 +4203,51 @@
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="22"/>
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87" t="s">
-        <v>189</v>
-      </c>
-      <c r="D87" t="s">
-        <v>26</v>
-      </c>
-      <c r="E87" t="s">
-        <v>40</v>
-      </c>
-      <c r="F87" t="s">
-        <v>41</v>
+      <c r="B87" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E87" s="17" t="s">
+        <v>354</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="8"/>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88" s="22"/>
-      <c r="B88" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88" s="27" t="s">
-        <v>122</v>
-      </c>
-      <c r="D88" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="E88" s="46"/>
-      <c r="F88" s="46"/>
+      <c r="B88" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E88" s="17" t="s">
+        <v>355</v>
+      </c>
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
-      <c r="J88" s="16" t="s">
-        <v>349</v>
-      </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89" s="22"/>
-      <c r="B89" t="s">
-        <v>25</v>
-      </c>
-      <c r="C89" t="s">
-        <v>191</v>
-      </c>
-      <c r="D89" t="s">
-        <v>26</v>
-      </c>
-      <c r="E89" t="s">
-        <v>46</v>
+      <c r="B89" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C89" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>353</v>
+      </c>
+      <c r="E89" s="17" t="s">
+        <v>356</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="8"/>
@@ -4253,33 +4258,38 @@
         <v>25</v>
       </c>
       <c r="C90" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="E90" t="s">
-        <v>45</v>
+        <v>40</v>
+      </c>
+      <c r="F90" t="s">
+        <v>41</v>
       </c>
       <c r="H90" s="4"/>
       <c r="I90" s="8"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91" s="22"/>
-      <c r="B91" t="s">
-        <v>25</v>
-      </c>
-      <c r="C91" t="s">
-        <v>192</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="B91" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="D91" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E91">
-        <v>0</v>
-      </c>
+      <c r="E91" s="15"/>
+      <c r="F91" s="15"/>
       <c r="H91" s="4"/>
       <c r="I91" s="8"/>
+      <c r="J91" s="16" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92" s="22"/>
@@ -4287,13 +4297,13 @@
         <v>25</v>
       </c>
       <c r="C92" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="D92" t="s">
         <v>26</v>
       </c>
       <c r="E92" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="H92" s="4"/>
       <c r="I92" s="8"/>
@@ -4304,13 +4314,13 @@
         <v>25</v>
       </c>
       <c r="C93" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D93" t="s">
         <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>211</v>
+        <v>45</v>
       </c>
       <c r="H93" s="4"/>
       <c r="I93" s="8"/>
@@ -4321,13 +4331,13 @@
         <v>25</v>
       </c>
       <c r="C94" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="D94" t="s">
         <v>26</v>
       </c>
-      <c r="E94" t="s">
-        <v>212</v>
+      <c r="E94">
+        <v>0</v>
       </c>
       <c r="H94" s="4"/>
       <c r="I94" s="8"/>
@@ -4338,167 +4348,149 @@
         <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="D95" t="s">
         <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H95" s="4"/>
       <c r="I95" s="8"/>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
-        <v>221</v>
-      </c>
+      <c r="A96" s="22"/>
       <c r="B96" t="s">
         <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>126</v>
+        <v>208</v>
       </c>
       <c r="D96" t="s">
         <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>224</v>
+        <v>211</v>
       </c>
       <c r="H96" s="4"/>
       <c r="I96" s="8"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
-        <v>223</v>
-      </c>
+      <c r="A97" s="22"/>
       <c r="B97" t="s">
         <v>25</v>
       </c>
       <c r="C97" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="D97" t="s">
         <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="H97" s="4"/>
       <c r="I97" s="8"/>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="23"/>
-      <c r="B98" s="6"/>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6"/>
-      <c r="E98" s="6"/>
-      <c r="F98" s="6"/>
-      <c r="G98" s="6"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="7"/>
+      <c r="A98" s="22"/>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98" t="s">
+        <v>218</v>
+      </c>
+      <c r="D98" t="s">
+        <v>26</v>
+      </c>
+      <c r="E98" t="s">
+        <v>219</v>
+      </c>
+      <c r="H98" s="4"/>
+      <c r="I98" s="8"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="24"/>
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
+      <c r="A99" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>126</v>
+      </c>
+      <c r="D99" t="s">
+        <v>26</v>
+      </c>
+      <c r="E99" t="s">
+        <v>224</v>
+      </c>
       <c r="H99" s="4"/>
       <c r="I99" s="8"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="22" t="s">
-        <v>38</v>
+      <c r="A100" s="25" t="s">
+        <v>223</v>
       </c>
       <c r="B100" t="s">
         <v>25</v>
       </c>
-      <c r="C100" s="18" t="s">
-        <v>180</v>
+      <c r="C100" t="s">
+        <v>126</v>
       </c>
       <c r="D100" t="s">
-        <v>65</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>34</v>
-      </c>
-      <c r="F100" t="s">
-        <v>4</v>
-      </c>
-      <c r="G100" t="s">
-        <v>2</v>
+        <v>222</v>
       </c>
       <c r="H100" s="4"/>
       <c r="I100" s="8"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="22"/>
-      <c r="B101" t="s">
-        <v>25</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D101" t="s">
-        <v>65</v>
-      </c>
-      <c r="E101" t="s">
-        <v>35</v>
-      </c>
-      <c r="F101" t="s">
-        <v>4</v>
-      </c>
-      <c r="G101" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="4"/>
-      <c r="I101" s="8"/>
+      <c r="A101" s="23"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="7"/>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A102" s="22"/>
-      <c r="B102" t="s">
-        <v>25</v>
-      </c>
-      <c r="C102" t="s">
-        <v>225</v>
-      </c>
-      <c r="D102" t="s">
-        <v>65</v>
-      </c>
-      <c r="E102" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F102" t="s">
-        <v>4</v>
-      </c>
-      <c r="G102" t="s">
-        <v>238</v>
-      </c>
+      <c r="A102" s="24"/>
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="2"/>
       <c r="H102" s="4"/>
       <c r="I102" s="8"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="22"/>
+      <c r="A103" s="22" t="s">
+        <v>38</v>
+      </c>
       <c r="B103" t="s">
         <v>25</v>
       </c>
-      <c r="C103" t="s">
-        <v>226</v>
+      <c r="C103" s="18" t="s">
+        <v>180</v>
       </c>
       <c r="D103" t="s">
         <v>65</v>
       </c>
-      <c r="E103" s="18" t="s">
-        <v>228</v>
+      <c r="E103" t="s">
+        <v>34</v>
       </c>
       <c r="F103" t="s">
         <v>4</v>
       </c>
       <c r="G103" t="s">
-        <v>237</v>
+        <v>2</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="8"/>
@@ -4508,20 +4500,20 @@
       <c r="B104" t="s">
         <v>25</v>
       </c>
-      <c r="C104" t="s">
-        <v>227</v>
+      <c r="C104" s="18" t="s">
+        <v>181</v>
       </c>
       <c r="D104" t="s">
         <v>65</v>
       </c>
-      <c r="E104" s="18" t="s">
-        <v>229</v>
+      <c r="E104" t="s">
+        <v>35</v>
       </c>
       <c r="F104" t="s">
         <v>4</v>
       </c>
       <c r="G104" t="s">
-        <v>237</v>
+        <v>3</v>
       </c>
       <c r="H104" s="4"/>
       <c r="I104" s="8"/>
@@ -4532,13 +4524,13 @@
         <v>25</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D105" t="s">
         <v>65</v>
       </c>
       <c r="E105" s="18" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F105" t="s">
         <v>4</v>
@@ -4555,13 +4547,13 @@
         <v>25</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="D106" t="s">
         <v>65</v>
       </c>
       <c r="E106" s="18" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F106" t="s">
         <v>4</v>
@@ -4578,13 +4570,13 @@
         <v>25</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="D107" t="s">
         <v>65</v>
       </c>
       <c r="E107" s="18" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F107" t="s">
         <v>4</v>
@@ -4600,20 +4592,20 @@
       <c r="B108" t="s">
         <v>25</v>
       </c>
-      <c r="C108" s="18" t="s">
-        <v>182</v>
+      <c r="C108" t="s">
+        <v>230</v>
       </c>
       <c r="D108" t="s">
         <v>65</v>
       </c>
-      <c r="E108" t="s">
-        <v>36</v>
+      <c r="E108" s="18" t="s">
+        <v>234</v>
       </c>
       <c r="F108" t="s">
         <v>4</v>
       </c>
       <c r="G108" t="s">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="H108" s="4"/>
       <c r="I108" s="8"/>
@@ -4623,42 +4615,43 @@
       <c r="B109" t="s">
         <v>25</v>
       </c>
-      <c r="C109" s="18" t="s">
-        <v>183</v>
+      <c r="C109" t="s">
+        <v>231</v>
       </c>
       <c r="D109" t="s">
         <v>65</v>
       </c>
-      <c r="E109" t="s">
-        <v>51</v>
+      <c r="E109" s="18" t="s">
+        <v>235</v>
       </c>
       <c r="F109" t="s">
         <v>4</v>
       </c>
       <c r="G109" t="s">
-        <v>53</v>
+        <v>237</v>
       </c>
       <c r="H109" s="4"/>
       <c r="I109" s="8"/>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="22"/>
       <c r="B110" t="s">
         <v>25</v>
       </c>
-      <c r="C110" s="18" t="s">
-        <v>185</v>
+      <c r="C110" t="s">
+        <v>232</v>
       </c>
       <c r="D110" t="s">
         <v>65</v>
       </c>
-      <c r="E110" t="s">
-        <v>50</v>
+      <c r="E110" s="18" t="s">
+        <v>236</v>
       </c>
       <c r="F110" t="s">
         <v>4</v>
       </c>
       <c r="G110" t="s">
-        <v>56</v>
+        <v>237</v>
       </c>
       <c r="H110" s="4"/>
       <c r="I110" s="8"/>
@@ -4669,19 +4662,19 @@
         <v>25</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D111" t="s">
         <v>65</v>
       </c>
       <c r="E111" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
         <v>4</v>
       </c>
       <c r="G111" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="H111" s="4"/>
       <c r="I111" s="8"/>
@@ -4692,42 +4685,41 @@
         <v>25</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D112" t="s">
         <v>65</v>
       </c>
       <c r="E112" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F112" t="s">
         <v>4</v>
       </c>
       <c r="G112" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="H112" s="4"/>
       <c r="I112" s="8"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="22"/>
       <c r="B113" t="s">
         <v>25</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D113" t="s">
         <v>65</v>
       </c>
       <c r="E113" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F113" t="s">
         <v>4</v>
       </c>
       <c r="G113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H113" s="4"/>
       <c r="I113" s="8"/>
@@ -4738,19 +4730,19 @@
         <v>25</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D114" t="s">
         <v>65</v>
       </c>
       <c r="E114" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="F114" t="s">
         <v>4</v>
       </c>
       <c r="G114" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="H114" s="4"/>
       <c r="I114" s="8"/>
@@ -4761,13 +4753,19 @@
         <v>25</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>215</v>
+        <v>187</v>
+      </c>
+      <c r="D115" t="s">
+        <v>65</v>
+      </c>
+      <c r="E115" t="s">
+        <v>57</v>
       </c>
       <c r="F115" t="s">
         <v>4</v>
       </c>
       <c r="G115" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="H115" s="4"/>
       <c r="I115" s="8"/>
@@ -4777,14 +4775,20 @@
       <c r="B116" t="s">
         <v>25</v>
       </c>
-      <c r="C116" t="s">
-        <v>213</v>
+      <c r="C116" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D116" t="s">
+        <v>65</v>
+      </c>
+      <c r="E116" t="s">
+        <v>57</v>
       </c>
       <c r="F116" t="s">
         <v>4</v>
       </c>
       <c r="G116" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H116" s="4"/>
       <c r="I116" s="8"/>
@@ -4794,14 +4798,20 @@
       <c r="B117" t="s">
         <v>25</v>
       </c>
-      <c r="C117" t="s">
-        <v>214</v>
+      <c r="C117" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D117" t="s">
+        <v>65</v>
+      </c>
+      <c r="E117" t="s">
+        <v>59</v>
       </c>
       <c r="F117" t="s">
         <v>4</v>
       </c>
       <c r="G117" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H117" s="4"/>
       <c r="I117" s="8"/>
@@ -4811,14 +4821,14 @@
       <c r="B118" t="s">
         <v>25</v>
       </c>
-      <c r="C118" t="s">
-        <v>216</v>
+      <c r="C118" s="18" t="s">
+        <v>215</v>
       </c>
       <c r="F118" t="s">
         <v>4</v>
       </c>
       <c r="G118" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="H118" s="4"/>
       <c r="I118" s="8"/>
@@ -4829,105 +4839,105 @@
         <v>25</v>
       </c>
       <c r="C119" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F119" t="s">
         <v>4</v>
       </c>
       <c r="G119" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H119" s="4"/>
       <c r="I119" s="8"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="23"/>
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
-      <c r="F120" s="6"/>
-      <c r="G120" s="6"/>
-      <c r="H120" s="5"/>
-      <c r="I120" s="7"/>
+      <c r="A120" s="22"/>
+      <c r="B120" t="s">
+        <v>25</v>
+      </c>
+      <c r="C120" t="s">
+        <v>214</v>
+      </c>
+      <c r="F120" t="s">
+        <v>4</v>
+      </c>
+      <c r="G120" t="s">
+        <v>64</v>
+      </c>
+      <c r="H120" s="4"/>
+      <c r="I120" s="8"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="24"/>
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-      <c r="D121" s="2"/>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
+      <c r="A121" s="22"/>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>216</v>
+      </c>
+      <c r="F121" t="s">
+        <v>4</v>
+      </c>
+      <c r="G121" t="s">
+        <v>66</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="8"/>
     </row>
-    <row r="122" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A122" s="22" t="s">
-        <v>260</v>
-      </c>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A122" s="22"/>
       <c r="B122" t="s">
         <v>25</v>
       </c>
-      <c r="C122" s="18" t="s">
-        <v>250</v>
-      </c>
-      <c r="D122" t="s">
-        <v>247</v>
-      </c>
-      <c r="E122" t="s">
-        <v>242</v>
+      <c r="C122" t="s">
+        <v>217</v>
+      </c>
+      <c r="F122" t="s">
+        <v>4</v>
+      </c>
+      <c r="G122" t="s">
+        <v>67</v>
       </c>
       <c r="H122" s="4"/>
       <c r="I122" s="8"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="22"/>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D123" t="s">
-        <v>247</v>
-      </c>
-      <c r="E123" t="s">
-        <v>244</v>
-      </c>
-      <c r="H123" s="4"/>
-      <c r="I123" s="8"/>
+      <c r="A123" s="23"/>
+      <c r="B123" s="6"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6"/>
+      <c r="F123" s="6"/>
+      <c r="G123" s="6"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="7"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="22"/>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="D124" t="s">
-        <v>247</v>
-      </c>
-      <c r="E124" t="s">
-        <v>127</v>
-      </c>
+      <c r="A124" s="24"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+      <c r="D124" s="2"/>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
       <c r="H124" s="4"/>
       <c r="I124" s="8"/>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="22"/>
+    <row r="125" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="22" t="s">
+        <v>260</v>
+      </c>
       <c r="B125" t="s">
         <v>25</v>
       </c>
       <c r="C125" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D125" t="s">
         <v>247</v>
       </c>
       <c r="E125" t="s">
-        <v>129</v>
+        <v>242</v>
       </c>
       <c r="H125" s="4"/>
       <c r="I125" s="8"/>
@@ -4938,13 +4948,13 @@
         <v>25</v>
       </c>
       <c r="C126" s="18" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="D126" t="s">
         <v>247</v>
       </c>
       <c r="E126" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="H126" s="4"/>
       <c r="I126" s="8"/>
@@ -4955,13 +4965,13 @@
         <v>25</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="D127" t="s">
         <v>247</v>
       </c>
       <c r="E127" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="H127" s="4"/>
       <c r="I127" s="8"/>
@@ -4972,13 +4982,13 @@
         <v>25</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D128" t="s">
         <v>247</v>
       </c>
       <c r="E128" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="H128" s="4"/>
       <c r="I128" s="8"/>
@@ -4989,13 +4999,13 @@
         <v>25</v>
       </c>
       <c r="C129" s="18" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="D129" t="s">
         <v>247</v>
       </c>
       <c r="E129" t="s">
-        <v>143</v>
+        <v>241</v>
       </c>
       <c r="H129" s="4"/>
       <c r="I129" s="8"/>
@@ -5006,13 +5016,13 @@
         <v>25</v>
       </c>
       <c r="C130" s="18" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="D130" t="s">
         <v>247</v>
       </c>
       <c r="E130" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H130" s="4"/>
       <c r="I130" s="8"/>
@@ -5023,13 +5033,13 @@
         <v>25</v>
       </c>
       <c r="C131" s="18" t="s">
-        <v>145</v>
+        <v>254</v>
       </c>
       <c r="D131" t="s">
         <v>247</v>
       </c>
       <c r="E131" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="8"/>
@@ -5040,29 +5050,30 @@
         <v>25</v>
       </c>
       <c r="C132" s="18" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D132" t="s">
         <v>247</v>
       </c>
       <c r="E132" t="s">
-        <v>240</v>
+        <v>143</v>
       </c>
       <c r="H132" s="4"/>
       <c r="I132" s="8"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
       <c r="B133" t="s">
         <v>25</v>
       </c>
       <c r="C133" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D133" t="s">
         <v>247</v>
       </c>
       <c r="E133" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="H133" s="4"/>
       <c r="I133" s="8"/>
@@ -5073,44 +5084,46 @@
         <v>25</v>
       </c>
       <c r="C134" s="18" t="s">
-        <v>258</v>
+        <v>145</v>
       </c>
       <c r="D134" t="s">
         <v>247</v>
       </c>
       <c r="E134" t="s">
-        <v>245</v>
+        <v>121</v>
       </c>
       <c r="H134" s="4"/>
       <c r="I134" s="8"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="22"/>
+      <c r="B135" t="s">
+        <v>25</v>
+      </c>
       <c r="C135" s="18" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D135" t="s">
         <v>247</v>
       </c>
       <c r="E135" t="s">
-        <v>122</v>
+        <v>240</v>
       </c>
       <c r="H135" s="4"/>
       <c r="I135" s="8"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="22"/>
       <c r="B136" t="s">
         <v>25</v>
       </c>
       <c r="C136" s="18" t="s">
-        <v>126</v>
+        <v>259</v>
       </c>
       <c r="D136" t="s">
         <v>247</v>
       </c>
       <c r="E136" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="8"/>
@@ -5121,469 +5134,502 @@
         <v>25</v>
       </c>
       <c r="C137" s="18" t="s">
-        <v>126</v>
+        <v>258</v>
       </c>
       <c r="D137" t="s">
         <v>247</v>
       </c>
       <c r="E137" t="s">
-        <v>220</v>
-      </c>
-      <c r="F137" t="s">
-        <v>261</v>
-      </c>
-      <c r="G137" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="H137" s="4"/>
       <c r="I137" s="8"/>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A138" s="23"/>
-      <c r="B138" s="6"/>
-      <c r="C138" s="6"/>
-      <c r="D138" s="6"/>
-      <c r="E138" s="6"/>
-      <c r="F138" s="6"/>
-      <c r="G138" s="6"/>
-      <c r="H138" s="5"/>
-      <c r="I138" s="7"/>
+      <c r="A138" s="22"/>
+      <c r="B138" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C138" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="H138" s="4"/>
+      <c r="I138" s="8"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="24"/>
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
-      <c r="F139" s="2"/>
-      <c r="G139" s="2"/>
-      <c r="H139" s="1"/>
-      <c r="I139" s="3"/>
+      <c r="A139" s="22"/>
+      <c r="B139" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D139" t="s">
+        <v>247</v>
+      </c>
+      <c r="E139" t="s">
+        <v>126</v>
+      </c>
+      <c r="H139" s="4"/>
+      <c r="I139" s="8"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B140" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C140" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D140" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E140" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="F140" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G140" s="34" t="s">
-        <v>157</v>
+      <c r="A140" s="22"/>
+      <c r="B140" t="s">
+        <v>25</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="D140" t="s">
+        <v>247</v>
+      </c>
+      <c r="E140" t="s">
+        <v>220</v>
+      </c>
+      <c r="F140" t="s">
+        <v>261</v>
+      </c>
+      <c r="G140" t="s">
+        <v>224</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="8"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="22"/>
-      <c r="B141" s="34" t="s">
+      <c r="A141" s="23"/>
+      <c r="B141" s="6"/>
+      <c r="C141" s="6"/>
+      <c r="D141" s="6"/>
+      <c r="E141" s="6"/>
+      <c r="F141" s="6"/>
+      <c r="G141" s="6"/>
+      <c r="H141" s="5"/>
+      <c r="I141" s="7"/>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A142" s="24"/>
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+      <c r="D142" s="2"/>
+      <c r="E142" s="2"/>
+      <c r="F142" s="2"/>
+      <c r="G142" s="2"/>
+      <c r="H142" s="1"/>
+      <c r="I142" s="3"/>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A143" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B143" t="s">
         <v>13</v>
       </c>
-      <c r="C141" s="34" t="s">
+      <c r="C143" t="s">
         <v>52</v>
       </c>
-      <c r="D141" s="34" t="s">
+      <c r="D143" t="s">
         <v>72</v>
       </c>
-      <c r="E141" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F141" s="34" t="s">
+      <c r="E143" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" t="s">
         <v>71</v>
       </c>
-      <c r="G141" s="34" t="s">
-        <v>156</v>
-      </c>
-      <c r="H141" s="4"/>
-      <c r="I141" s="8"/>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A142" s="22"/>
-      <c r="B142" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C142" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D142" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E142" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="F142" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G142" s="34" t="s">
-        <v>193</v>
-      </c>
-      <c r="H142" s="4"/>
-      <c r="I142" s="8"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="22"/>
-      <c r="B143" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C143" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D143" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E143" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F143" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="G143" s="34" t="s">
-        <v>162</v>
+      <c r="G143" t="s">
+        <v>157</v>
       </c>
       <c r="H143" s="4"/>
       <c r="I143" s="8"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="22"/>
-      <c r="B144" s="34" t="s">
+      <c r="B144" t="s">
         <v>13</v>
       </c>
-      <c r="C144" s="34" t="s">
+      <c r="C144" t="s">
         <v>52</v>
       </c>
-      <c r="D144" s="34" t="s">
+      <c r="D144" t="s">
         <v>72</v>
       </c>
-      <c r="E144" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F144" s="34" t="s">
+      <c r="E144" t="s">
+        <v>21</v>
+      </c>
+      <c r="F144" t="s">
         <v>71</v>
       </c>
-      <c r="G144" s="34" t="s">
-        <v>163</v>
+      <c r="G144" t="s">
+        <v>156</v>
       </c>
       <c r="H144" s="4"/>
       <c r="I144" s="8"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="22"/>
-      <c r="B145" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C145" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D145" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E145" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="F145" s="34" t="s">
+      <c r="B145" t="s">
+        <v>73</v>
+      </c>
+      <c r="C145" t="s">
+        <v>75</v>
+      </c>
+      <c r="D145" t="s">
+        <v>74</v>
+      </c>
+      <c r="E145" t="s">
+        <v>22</v>
+      </c>
+      <c r="F145" t="s">
         <v>71</v>
       </c>
-      <c r="G145" s="34" t="s">
-        <v>165</v>
+      <c r="G145" t="s">
+        <v>193</v>
       </c>
       <c r="H145" s="4"/>
       <c r="I145" s="8"/>
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="22"/>
-      <c r="B146" s="34" t="s">
+      <c r="B146" t="s">
         <v>13</v>
       </c>
-      <c r="C146" s="34" t="s">
+      <c r="C146" t="s">
         <v>52</v>
       </c>
-      <c r="D146" s="34" t="s">
+      <c r="D146" t="s">
         <v>72</v>
       </c>
-      <c r="E146" s="34" t="s">
+      <c r="E146" t="s">
         <v>43</v>
       </c>
-      <c r="F146" s="34" t="s">
+      <c r="F146" t="s">
         <v>71</v>
       </c>
-      <c r="G146" s="34" t="s">
-        <v>164</v>
+      <c r="G146" t="s">
+        <v>162</v>
       </c>
       <c r="H146" s="4"/>
       <c r="I146" s="8"/>
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="22"/>
-      <c r="B147" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C147" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D147" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E147" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="F147" s="34" t="s">
+      <c r="B147" t="s">
+        <v>13</v>
+      </c>
+      <c r="C147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D147" t="s">
+        <v>72</v>
+      </c>
+      <c r="E147" t="s">
+        <v>43</v>
+      </c>
+      <c r="F147" t="s">
         <v>71</v>
       </c>
-      <c r="G147" s="34" t="s">
-        <v>200</v>
+      <c r="G147" t="s">
+        <v>163</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="8"/>
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="22"/>
-      <c r="B148" s="34" t="s">
+      <c r="B148" t="s">
         <v>13</v>
       </c>
-      <c r="C148" s="34" t="s">
+      <c r="C148" t="s">
         <v>52</v>
       </c>
-      <c r="D148" s="34" t="s">
+      <c r="D148" t="s">
         <v>72</v>
       </c>
-      <c r="E148" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="F148" s="34" t="s">
+      <c r="E148" t="s">
+        <v>43</v>
+      </c>
+      <c r="F148" t="s">
         <v>71</v>
       </c>
-      <c r="G148" s="34" t="s">
-        <v>173</v>
+      <c r="G148" t="s">
+        <v>165</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="8"/>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="22"/>
-      <c r="B149" s="34" t="s">
+      <c r="B149" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="34" t="s">
+      <c r="C149" t="s">
         <v>52</v>
       </c>
-      <c r="D149" s="34" t="s">
+      <c r="D149" t="s">
         <v>72</v>
       </c>
-      <c r="E149" s="34" t="s">
-        <v>28</v>
-      </c>
-      <c r="F149" s="34" t="s">
+      <c r="E149" t="s">
+        <v>43</v>
+      </c>
+      <c r="F149" t="s">
         <v>71</v>
       </c>
-      <c r="G149" s="34" t="s">
-        <v>172</v>
+      <c r="G149" t="s">
+        <v>164</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="8"/>
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="22"/>
-      <c r="B150" s="34" t="s">
-        <v>13</v>
-      </c>
-      <c r="C150" s="34" t="s">
-        <v>52</v>
-      </c>
-      <c r="D150" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E150" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="F150" s="34" t="s">
+      <c r="B150" t="s">
+        <v>73</v>
+      </c>
+      <c r="C150" t="s">
+        <v>75</v>
+      </c>
+      <c r="D150" t="s">
+        <v>74</v>
+      </c>
+      <c r="E150" t="s">
+        <v>44</v>
+      </c>
+      <c r="F150" t="s">
         <v>71</v>
       </c>
-      <c r="G150" s="34" t="s">
-        <v>175</v>
+      <c r="G150" t="s">
+        <v>200</v>
       </c>
       <c r="H150" s="4"/>
       <c r="I150" s="8"/>
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="22"/>
-      <c r="B151" s="34" t="s">
+      <c r="B151" t="s">
         <v>13</v>
       </c>
-      <c r="C151" s="34" t="s">
+      <c r="C151" t="s">
         <v>52</v>
       </c>
-      <c r="D151" s="34" t="s">
+      <c r="D151" t="s">
         <v>72</v>
       </c>
-      <c r="E151" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="F151" s="34" t="s">
+      <c r="E151" t="s">
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
         <v>71</v>
       </c>
-      <c r="G151" s="34" t="s">
-        <v>174</v>
+      <c r="G151" t="s">
+        <v>173</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="8"/>
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="22"/>
-      <c r="B152" s="34" t="s">
+      <c r="B152" t="s">
         <v>13</v>
       </c>
-      <c r="C152" s="34" t="s">
+      <c r="C152" t="s">
         <v>52</v>
       </c>
-      <c r="D152" s="34" t="s">
+      <c r="D152" t="s">
         <v>72</v>
       </c>
-      <c r="E152" s="34" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" s="34" t="s">
+      <c r="E152" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" t="s">
         <v>71</v>
       </c>
-      <c r="G152" s="34" t="s">
-        <v>177</v>
+      <c r="G152" t="s">
+        <v>172</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="8"/>
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="22"/>
-      <c r="B153" s="34" t="s">
+      <c r="B153" t="s">
         <v>13</v>
       </c>
-      <c r="C153" s="34" t="s">
+      <c r="C153" t="s">
         <v>52</v>
       </c>
-      <c r="D153" s="34" t="s">
+      <c r="D153" t="s">
         <v>72</v>
       </c>
-      <c r="E153" s="34" t="s">
-        <v>31</v>
-      </c>
-      <c r="F153" s="34" t="s">
+      <c r="E153" t="s">
+        <v>29</v>
+      </c>
+      <c r="F153" t="s">
         <v>71</v>
       </c>
-      <c r="G153" s="34" t="s">
-        <v>176</v>
+      <c r="G153" t="s">
+        <v>175</v>
       </c>
       <c r="H153" s="4"/>
       <c r="I153" s="8"/>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="22"/>
-      <c r="B154" s="34" t="s">
+      <c r="B154" t="s">
         <v>13</v>
       </c>
-      <c r="C154" s="34" t="s">
+      <c r="C154" t="s">
         <v>52</v>
       </c>
-      <c r="D154" s="34" t="s">
+      <c r="D154" t="s">
         <v>72</v>
       </c>
-      <c r="E154" s="34" t="s">
-        <v>32</v>
-      </c>
-      <c r="F154" s="34" t="s">
+      <c r="E154" t="s">
+        <v>30</v>
+      </c>
+      <c r="F154" t="s">
         <v>71</v>
       </c>
-      <c r="G154" s="34" t="s">
-        <v>179</v>
+      <c r="G154" t="s">
+        <v>174</v>
       </c>
       <c r="H154" s="4"/>
       <c r="I154" s="8"/>
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="22"/>
-      <c r="B155" s="34" t="s">
+      <c r="B155" t="s">
         <v>13</v>
       </c>
-      <c r="C155" s="34" t="s">
+      <c r="C155" t="s">
         <v>52</v>
       </c>
-      <c r="D155" s="34" t="s">
+      <c r="D155" t="s">
         <v>72</v>
       </c>
-      <c r="E155" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="F155" s="34" t="s">
+      <c r="E155" t="s">
+        <v>18</v>
+      </c>
+      <c r="F155" t="s">
         <v>71</v>
       </c>
-      <c r="G155" s="34" t="s">
-        <v>178</v>
+      <c r="G155" t="s">
+        <v>177</v>
       </c>
       <c r="H155" s="4"/>
       <c r="I155" s="8"/>
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="22"/>
-      <c r="B156" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="C156" s="34" t="s">
-        <v>75</v>
-      </c>
-      <c r="D156" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E156" s="34" t="s">
-        <v>33</v>
-      </c>
-      <c r="F156" s="34" t="s">
+      <c r="B156" t="s">
+        <v>13</v>
+      </c>
+      <c r="C156" t="s">
+        <v>52</v>
+      </c>
+      <c r="D156" t="s">
+        <v>72</v>
+      </c>
+      <c r="E156" t="s">
+        <v>31</v>
+      </c>
+      <c r="F156" t="s">
         <v>71</v>
       </c>
-      <c r="G156" s="34" t="s">
-        <v>198</v>
+      <c r="G156" t="s">
+        <v>176</v>
       </c>
       <c r="H156" s="4"/>
       <c r="I156" s="8"/>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A157" s="23"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="6"/>
-      <c r="G157" s="6"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="7"/>
-    </row>
-    <row r="158" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="48"/>
-    </row>
-    <row r="159" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A159" s="48"/>
-    </row>
-    <row r="160" spans="1:9" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="48"/>
-    </row>
-    <row r="161" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="48"/>
-    </row>
-    <row r="162" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A162" s="48"/>
-    </row>
-    <row r="163" spans="1:1" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A163" s="48"/>
+      <c r="A157" s="22"/>
+      <c r="B157" t="s">
+        <v>13</v>
+      </c>
+      <c r="C157" t="s">
+        <v>52</v>
+      </c>
+      <c r="D157" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157" t="s">
+        <v>32</v>
+      </c>
+      <c r="F157" t="s">
+        <v>71</v>
+      </c>
+      <c r="G157" t="s">
+        <v>179</v>
+      </c>
+      <c r="H157" s="4"/>
+      <c r="I157" s="8"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A158" s="22"/>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158" t="s">
+        <v>52</v>
+      </c>
+      <c r="D158" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" t="s">
+        <v>21</v>
+      </c>
+      <c r="F158" t="s">
+        <v>71</v>
+      </c>
+      <c r="G158" t="s">
+        <v>178</v>
+      </c>
+      <c r="H158" s="4"/>
+      <c r="I158" s="8"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A159" s="22"/>
+      <c r="B159" t="s">
+        <v>73</v>
+      </c>
+      <c r="C159" t="s">
+        <v>75</v>
+      </c>
+      <c r="D159" t="s">
+        <v>74</v>
+      </c>
+      <c r="E159" t="s">
+        <v>33</v>
+      </c>
+      <c r="F159" t="s">
+        <v>71</v>
+      </c>
+      <c r="G159" t="s">
+        <v>198</v>
+      </c>
+      <c r="H159" s="4"/>
+      <c r="I159" s="8"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A160" s="23"/>
+      <c r="B160" s="6"/>
+      <c r="C160" s="6"/>
+      <c r="D160" s="6"/>
+      <c r="E160" s="6"/>
+      <c r="F160" s="6"/>
+      <c r="G160" s="6"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
     <mergeCell ref="B20:G20"/>
     <mergeCell ref="B21:G21"/>
     <mergeCell ref="B31:G31"/>
@@ -5592,11 +5638,12 @@
     <mergeCell ref="B30:G30"/>
     <mergeCell ref="B19:G19"/>
     <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B24:G24"/>
     <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B24:G24"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
-  <conditionalFormatting sqref="H6:I26 H159:I161 H35:I80">
+  <conditionalFormatting sqref="H6:I26 H35:I80 H162:I164">
     <cfRule type="containsText" dxfId="53" priority="15" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",H6)))</formula>
     </cfRule>
@@ -5612,7 +5659,7 @@
       <formula>NOT(ISERROR(SEARCH("passed",H29)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H83:I97">
+  <conditionalFormatting sqref="H83:I100">
     <cfRule type="containsText" dxfId="49" priority="9" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",H83)))</formula>
     </cfRule>
@@ -5620,28 +5667,28 @@
       <formula>NOT(ISERROR(SEARCH("passed",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H100:I119">
+  <conditionalFormatting sqref="H103:I122">
     <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="failed">
-      <formula>NOT(ISERROR(SEARCH("failed",H100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("failed",H103)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="46" priority="8" operator="containsText" text="passed">
-      <formula>NOT(ISERROR(SEARCH("passed",H100)))</formula>
+      <formula>NOT(ISERROR(SEARCH("passed",H103)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H122:I137">
+  <conditionalFormatting sqref="H125:I140">
     <cfRule type="containsText" dxfId="45" priority="3" operator="containsText" text="failed">
-      <formula>NOT(ISERROR(SEARCH("failed",H122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("failed",H125)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="44" priority="4" operator="containsText" text="passed">
-      <formula>NOT(ISERROR(SEARCH("passed",H122)))</formula>
+      <formula>NOT(ISERROR(SEARCH("passed",H125)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H140:I156">
+  <conditionalFormatting sqref="H143:I159">
     <cfRule type="containsText" dxfId="43" priority="5" operator="containsText" text="failed">
-      <formula>NOT(ISERROR(SEARCH("failed",H140)))</formula>
+      <formula>NOT(ISERROR(SEARCH("failed",H143)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="42" priority="6" operator="containsText" text="passed">
-      <formula>NOT(ISERROR(SEARCH("passed",H140)))</formula>
+      <formula>NOT(ISERROR(SEARCH("passed",H143)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -5653,7 +5700,7 @@
           <x14:formula1>
             <xm:f>Content!$B$4:$B$9</xm:f>
           </x14:formula1>
-          <xm:sqref>H29:I32 H83:I97 H100:I119 H140:I156 H122:I137 H6:I26 H159:I161 H35:I80</xm:sqref>
+          <xm:sqref>H29:I32 H83:I100 H103:I122 H143:I159 H125:I140 H6:I26 H162:I164 H35:I80</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5684,7 +5731,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -5703,10 +5750,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -5718,14 +5765,14 @@
       <c r="A6" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="31" t="s">
         <v>262</v>
       </c>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
       <c r="H6" s="4"/>
       <c r="I6" s="8"/>
     </row>
@@ -5739,27 +5786,27 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="22"/>
-      <c r="B8" s="29" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
+      <c r="B8" s="33" t="s">
+        <v>287</v>
+      </c>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="34"/>
       <c r="H8" s="4"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="22"/>
-      <c r="B9" s="31" t="s">
-        <v>291</v>
-      </c>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="31"/>
-      <c r="G9" s="32"/>
+      <c r="B9" s="35" t="s">
+        <v>290</v>
+      </c>
+      <c r="C9" s="35"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
       <c r="H9" s="4"/>
       <c r="I9" s="8"/>
     </row>
@@ -5781,49 +5828,49 @@
     </row>
     <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
-        <v>289</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>287</v>
-      </c>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
+        <v>288</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
       <c r="H12" s="4"/>
       <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="22"/>
-      <c r="B13" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
+      <c r="B13" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
       <c r="H13" s="4"/>
       <c r="I13" s="8"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
-      <c r="B14" s="28" t="s">
-        <v>285</v>
-      </c>
-      <c r="C14" s="28"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
+      <c r="B14" s="31" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
       <c r="H14" s="4"/>
       <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="22"/>
       <c r="B15" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="8"/>
@@ -6317,7 +6364,7 @@
         <v>25</v>
       </c>
       <c r="C49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D49" t="s">
         <v>26</v>
@@ -6338,7 +6385,7 @@
         <v>19</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E50" s="15"/>
       <c r="H50" s="4"/>
@@ -7091,7 +7138,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
       <c r="J88" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="2:10" x14ac:dyDescent="0.25">
@@ -7116,7 +7163,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="8"/>
       <c r="J89" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="2:10" x14ac:dyDescent="0.25">
@@ -7141,7 +7188,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="8"/>
       <c r="J90" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="2:10" x14ac:dyDescent="0.25">
@@ -7166,7 +7213,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="8"/>
       <c r="J91" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="2:10" x14ac:dyDescent="0.25">
@@ -7191,7 +7238,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="8"/>
       <c r="J92" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="2:10" x14ac:dyDescent="0.25">
@@ -7199,7 +7246,7 @@
         <v>23</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D93" t="s">
         <v>0</v>
@@ -7221,7 +7268,7 @@
         <v>23</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D94" t="s">
         <v>0</v>
@@ -7243,7 +7290,7 @@
         <v>23</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D95" t="s">
         <v>0</v>
@@ -7946,7 +7993,7 @@
       <c r="H131" s="4"/>
       <c r="I131" s="8"/>
       <c r="J131" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
@@ -8129,25 +8176,25 @@
       <formula>NOT(ISERROR(SEARCH("passed",H18)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H104:I115">
-    <cfRule type="containsText" dxfId="38" priority="33" operator="containsText" text="failed">
-      <formula>NOT(ISERROR(SEARCH("failed",H104)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="34" operator="containsText" text="passed">
-      <formula>NOT(ISERROR(SEARCH("passed",H104)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H65:I101 J88:J95">
-    <cfRule type="containsText" dxfId="36" priority="11" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",H65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="12" operator="containsText" text="passed">
+    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="passed">
       <formula>NOT(ISERROR(SEARCH("passed",H65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96:I101 H6:I15 H49:I62 H144:I145">
-    <cfRule type="containsText" dxfId="34" priority="19" operator="containsText" text="failed">
+    <cfRule type="containsText" dxfId="36" priority="19" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",H6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H104:I115">
+    <cfRule type="containsText" dxfId="35" priority="33" operator="containsText" text="failed">
+      <formula>NOT(ISERROR(SEARCH("failed",H104)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="passed">
+      <formula>NOT(ISERROR(SEARCH("passed",H104)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H118:I133">
@@ -8206,7 +8253,7 @@
   <sheetData>
     <row r="2" spans="1:9" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B2" s="19" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18.75" x14ac:dyDescent="0.3">
@@ -8225,10 +8272,10 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -8275,7 +8322,7 @@
         <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D9" t="s">
         <v>101</v>
@@ -8549,7 +8596,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="8"/>
       <c r="J26" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
@@ -8569,7 +8616,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="8"/>
       <c r="J27" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -8589,7 +8636,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="8"/>
       <c r="J28" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -8609,7 +8656,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="8"/>
       <c r="J29" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -8626,7 +8673,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="8"/>
       <c r="J30" s="16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -9313,7 +9360,7 @@
         <v>90</v>
       </c>
       <c r="E69" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F69" t="s">
         <v>91</v>
@@ -9368,7 +9415,7 @@
         <v>119</v>
       </c>
       <c r="F73" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="8"/>
@@ -9385,10 +9432,10 @@
         <v>118</v>
       </c>
       <c r="E74" t="s">
+        <v>268</v>
+      </c>
+      <c r="F74" t="s">
         <v>269</v>
-      </c>
-      <c r="F74" t="s">
-        <v>270</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="8"/>
@@ -9408,7 +9455,7 @@
         <v>119</v>
       </c>
       <c r="F75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H75" s="4"/>
       <c r="I75" s="8"/>
@@ -9425,10 +9472,10 @@
         <v>118</v>
       </c>
       <c r="E76" t="s">
+        <v>268</v>
+      </c>
+      <c r="F76" t="s">
         <v>269</v>
-      </c>
-      <c r="F76" t="s">
-        <v>270</v>
       </c>
       <c r="H76" s="4"/>
       <c r="I76" s="8"/>
@@ -9448,7 +9495,7 @@
         <v>119</v>
       </c>
       <c r="F77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H77" s="4"/>
       <c r="I77" s="8"/>
@@ -9465,10 +9512,10 @@
         <v>118</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H78" s="4"/>
       <c r="I78" s="8"/>
@@ -9488,7 +9535,7 @@
         <v>119</v>
       </c>
       <c r="F79" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H79" s="4"/>
       <c r="I79" s="8"/>
@@ -9505,10 +9552,10 @@
         <v>118</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F80" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H80" s="4"/>
       <c r="I80" s="8"/>
@@ -9528,7 +9575,7 @@
         <v>120</v>
       </c>
       <c r="F81" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H81" s="4"/>
       <c r="I81" s="8"/>
@@ -9548,7 +9595,7 @@
         <v>120</v>
       </c>
       <c r="F82" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H82" s="4"/>
       <c r="I82" s="8"/>
@@ -9568,7 +9615,7 @@
         <v>120</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="8"/>
@@ -9585,7 +9632,7 @@
         <v>120</v>
       </c>
       <c r="F84" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H84" s="4"/>
       <c r="I84" s="8"/>
@@ -9602,7 +9649,7 @@
         <v>120</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="H85" s="4"/>
       <c r="I85" s="8"/>
@@ -9624,7 +9671,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="8"/>
       <c r="J86" s="16" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -9650,13 +9697,13 @@
         <v>25</v>
       </c>
       <c r="C88" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D88" t="s">
         <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="8"/>
@@ -9667,13 +9714,13 @@
         <v>25</v>
       </c>
       <c r="C89" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D89" t="s">
         <v>118</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="8"/>
@@ -9700,7 +9747,7 @@
       <c r="I92" s="7"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="H73:I100 H9:I70">
+  <conditionalFormatting sqref="H9:I70 H73:I100">
     <cfRule type="containsText" dxfId="29" priority="23" operator="containsText" text="failed">
       <formula>NOT(ISERROR(SEARCH("failed",H9)))</formula>
     </cfRule>
@@ -9752,7 +9799,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="9" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
@@ -9767,10 +9814,10 @@
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>280</v>
-      </c>
-      <c r="E4" s="11" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -9780,37 +9827,32 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C6" s="34"/>
+        <v>317</v>
+      </c>
+      <c r="B6" t="s">
+        <v>318</v>
+      </c>
       <c r="D6" s="4"/>
       <c r="E6" s="8"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" s="34" t="s">
-        <v>321</v>
-      </c>
-      <c r="C7" s="34"/>
+      <c r="B7" t="s">
+        <v>319</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" s="34" t="s">
+      <c r="B8" t="s">
         <v>264</v>
       </c>
-      <c r="C8" s="34"/>
       <c r="D8" s="4"/>
       <c r="E8" s="8"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34"/>
       <c r="D9" s="4"/>
       <c r="E9" s="8"/>
     </row>
@@ -9830,37 +9872,32 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="B12" s="34" t="s">
         <v>320</v>
       </c>
-      <c r="C12" s="34"/>
+      <c r="B12" t="s">
+        <v>318</v>
+      </c>
       <c r="D12" s="4"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="34"/>
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="C14" s="34"/>
+      <c r="B14" t="s">
+        <v>333</v>
+      </c>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
       <c r="D15" s="4"/>
       <c r="E15" s="8"/>
     </row>
@@ -9880,37 +9917,32 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C18" s="34"/>
+        <v>321</v>
+      </c>
+      <c r="B18" t="s">
+        <v>318</v>
+      </c>
       <c r="D18" s="4"/>
       <c r="E18" s="8"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="34" t="s">
-        <v>334</v>
-      </c>
-      <c r="C19" s="34"/>
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="34" t="s">
-        <v>335</v>
-      </c>
-      <c r="C20" s="34"/>
+      <c r="B20" t="s">
+        <v>333</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
     </row>
@@ -9930,40 +9962,40 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="C24" s="33"/>
+        <v>322</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>318</v>
+      </c>
+      <c r="C24" s="32"/>
       <c r="D24" s="4"/>
-      <c r="E24" s="43"/>
+      <c r="E24" s="30"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="39" t="s">
-        <v>336</v>
-      </c>
-      <c r="C25" s="40"/>
+      <c r="B25" t="s">
+        <v>334</v>
+      </c>
+      <c r="C25" s="8"/>
       <c r="D25" s="4"/>
-      <c r="E25" s="43"/>
+      <c r="E25" s="30"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="39" t="s">
-        <v>337</v>
-      </c>
-      <c r="C26" s="40"/>
+      <c r="B26" t="s">
+        <v>335</v>
+      </c>
+      <c r="C26" s="8"/>
       <c r="D26" s="4"/>
-      <c r="E26" s="43"/>
+      <c r="E26" s="30"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="41" t="s">
-        <v>338</v>
-      </c>
-      <c r="C27" s="42"/>
-      <c r="D27" s="37"/>
+      <c r="B27" t="s">
+        <v>336</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="29"/>
       <c r="E27" s="8"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -9982,35 +10014,29 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="B30" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C30" s="34"/>
+        <v>323</v>
+      </c>
+      <c r="B30" t="s">
+        <v>318</v>
+      </c>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="34" t="s">
-        <v>339</v>
-      </c>
-      <c r="C31" s="34"/>
+      <c r="B31" t="s">
+        <v>337</v>
+      </c>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
       <c r="D33" s="4"/>
       <c r="E33" s="8"/>
     </row>
@@ -10030,35 +10056,29 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C36" s="34"/>
+        <v>324</v>
+      </c>
+      <c r="B36" t="s">
+        <v>318</v>
+      </c>
       <c r="D36" s="4"/>
       <c r="E36" s="8"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="34" t="s">
-        <v>340</v>
-      </c>
-      <c r="C37" s="34"/>
+      <c r="B37" t="s">
+        <v>338</v>
+      </c>
       <c r="D37" s="4"/>
       <c r="E37" s="8"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
       <c r="D38" s="4"/>
       <c r="E38" s="8"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
       <c r="D39" s="4"/>
       <c r="E39" s="8"/>
     </row>
@@ -10078,35 +10098,29 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C42" s="34"/>
+        <v>325</v>
+      </c>
+      <c r="B42" t="s">
+        <v>318</v>
+      </c>
       <c r="D42" s="4"/>
       <c r="E42" s="8"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="34" t="s">
-        <v>341</v>
-      </c>
-      <c r="C43" s="34"/>
+      <c r="B43" t="s">
+        <v>339</v>
+      </c>
       <c r="D43" s="4"/>
       <c r="E43" s="8"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="34"/>
-      <c r="C44" s="34"/>
       <c r="D44" s="4"/>
       <c r="E44" s="8"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="34"/>
-      <c r="C45" s="34"/>
       <c r="D45" s="4"/>
       <c r="E45" s="8"/>
     </row>
@@ -10126,12 +10140,11 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C48" s="34"/>
+        <v>326</v>
+      </c>
+      <c r="B48" t="s">
+        <v>318</v>
+      </c>
       <c r="D48" s="4"/>
       <c r="E48" s="8"/>
     </row>
@@ -10140,7 +10153,6 @@
       <c r="B49" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="C49" s="34"/>
       <c r="D49" s="4"/>
       <c r="E49" s="8"/>
     </row>
@@ -10149,7 +10161,6 @@
       <c r="B50" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="C50" s="34"/>
       <c r="D50" s="4"/>
       <c r="E50" s="8"/>
     </row>
@@ -10158,7 +10169,6 @@
       <c r="B51" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="C51" s="34"/>
       <c r="D51" s="4"/>
       <c r="E51" s="8"/>
     </row>
@@ -10167,7 +10177,6 @@
       <c r="B52" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="C52" s="34"/>
       <c r="D52" s="4"/>
       <c r="E52" s="8"/>
     </row>
@@ -10176,7 +10185,6 @@
       <c r="B53" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="C53" s="34"/>
       <c r="D53" s="4"/>
       <c r="E53" s="8"/>
     </row>
@@ -10185,16 +10193,14 @@
       <c r="B54" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="C54" s="34"/>
       <c r="D54" s="4"/>
       <c r="E54" s="8"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="34" t="s">
-        <v>342</v>
-      </c>
-      <c r="C55" s="34"/>
+      <c r="B55" t="s">
+        <v>340</v>
+      </c>
       <c r="D55" s="4"/>
       <c r="E55" s="8"/>
     </row>
@@ -10214,37 +10220,32 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="B58" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="37"/>
+        <v>327</v>
+      </c>
+      <c r="B58" t="s">
+        <v>318</v>
+      </c>
+      <c r="D58" s="29"/>
       <c r="E58" s="8"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C59" s="34"/>
-      <c r="D59" s="37"/>
+      <c r="B59" t="s">
+        <v>341</v>
+      </c>
+      <c r="D59" s="29"/>
       <c r="E59" s="8"/>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C60" s="34"/>
+      <c r="B60" t="s">
+        <v>342</v>
+      </c>
       <c r="D60" s="4"/>
-      <c r="E60" s="43"/>
+      <c r="E60" s="30"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="34"/>
-      <c r="C61" s="34"/>
       <c r="D61" s="4"/>
       <c r="E61" s="8"/>
     </row>
@@ -10264,37 +10265,32 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="s">
-        <v>330</v>
-      </c>
-      <c r="B64" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C64" s="34"/>
-      <c r="D64" s="37"/>
+        <v>328</v>
+      </c>
+      <c r="B64" t="s">
+        <v>318</v>
+      </c>
+      <c r="D64" s="29"/>
       <c r="E64" s="8"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="34" t="s">
-        <v>345</v>
-      </c>
-      <c r="C65" s="34"/>
-      <c r="D65" s="37"/>
+      <c r="B65" t="s">
+        <v>343</v>
+      </c>
+      <c r="D65" s="29"/>
       <c r="E65" s="8"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C66" s="34"/>
+      <c r="B66" t="s">
+        <v>342</v>
+      </c>
       <c r="D66" s="4"/>
-      <c r="E66" s="43"/>
+      <c r="E66" s="30"/>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="34"/>
-      <c r="C67" s="34"/>
       <c r="D67" s="4"/>
       <c r="E67" s="8"/>
     </row>
@@ -10314,37 +10310,32 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C70" s="34"/>
-      <c r="D70" s="37"/>
+        <v>329</v>
+      </c>
+      <c r="B70" t="s">
+        <v>318</v>
+      </c>
+      <c r="D70" s="29"/>
       <c r="E70" s="8"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="34" t="s">
-        <v>343</v>
-      </c>
-      <c r="C71" s="34"/>
-      <c r="D71" s="37"/>
+      <c r="B71" t="s">
+        <v>341</v>
+      </c>
+      <c r="D71" s="29"/>
       <c r="E71" s="8"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="44"/>
-      <c r="E72" s="43"/>
+      <c r="B72" t="s">
+        <v>342</v>
+      </c>
+      <c r="D72" s="4"/>
+      <c r="E72" s="30"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="34"/>
-      <c r="C73" s="34"/>
       <c r="D73" s="4"/>
       <c r="E73" s="8"/>
     </row>
@@ -10364,37 +10355,32 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B76" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C76" s="34"/>
-      <c r="D76" s="37"/>
+        <v>330</v>
+      </c>
+      <c r="B76" t="s">
+        <v>318</v>
+      </c>
+      <c r="D76" s="29"/>
       <c r="E76" s="8"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="34" t="s">
-        <v>346</v>
-      </c>
-      <c r="C77" s="34"/>
-      <c r="D77" s="37"/>
+      <c r="B77" t="s">
+        <v>344</v>
+      </c>
+      <c r="D77" s="29"/>
       <c r="E77" s="8"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C78" s="34"/>
+      <c r="B78" t="s">
+        <v>342</v>
+      </c>
       <c r="D78" s="4"/>
-      <c r="E78" s="43"/>
+      <c r="E78" s="30"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="34"/>
-      <c r="C79" s="34"/>
       <c r="D79" s="4"/>
       <c r="E79" s="8"/>
     </row>
@@ -10414,33 +10400,26 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B82" s="34" t="s">
-        <v>347</v>
-      </c>
-      <c r="C82" s="34"/>
+        <v>331</v>
+      </c>
+      <c r="B82" t="s">
+        <v>345</v>
+      </c>
       <c r="D82" s="4"/>
       <c r="E82" s="8"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="34"/>
-      <c r="C83" s="34"/>
       <c r="D83" s="4"/>
       <c r="E83" s="8"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="34"/>
-      <c r="C84" s="34"/>
       <c r="D84" s="4"/>
       <c r="E84" s="8"/>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
       <c r="D85" s="4"/>
       <c r="E85" s="8"/>
     </row>
